--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.260188503870192</v>
+        <v>0.116832</v>
       </c>
       <c r="N2">
-        <v>0.260188503870192</v>
+        <v>0.350496</v>
       </c>
       <c r="O2">
-        <v>0.01410818159571899</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="P2">
-        <v>0.01410818159571899</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="Q2">
-        <v>0.0805409360846326</v>
+        <v>0.06118176393600001</v>
       </c>
       <c r="R2">
-        <v>0.0805409360846326</v>
+        <v>0.5506358754240001</v>
       </c>
       <c r="S2">
-        <v>1.312744631238716E-05</v>
+        <v>8.487234678778303E-06</v>
       </c>
       <c r="T2">
-        <v>1.312744631238716E-05</v>
+        <v>8.49290805008117E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.82013325205461</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N3">
-        <v>5.82013325205461</v>
+        <v>1.339502</v>
       </c>
       <c r="O3">
-        <v>0.3155846457852511</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="P3">
-        <v>0.3155846457852511</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="Q3">
-        <v>1.801612958624948</v>
+        <v>0.2338203436153334</v>
       </c>
       <c r="R3">
-        <v>1.801612958624948</v>
+        <v>2.104383092538</v>
       </c>
       <c r="S3">
-        <v>0.0002936466664007716</v>
+        <v>3.243594171315191E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002936466664007716</v>
+        <v>3.245762382138406E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3620623390704</v>
+        <v>6.387742666666667</v>
       </c>
       <c r="N4">
-        <v>12.3620623390704</v>
+        <v>19.163228</v>
       </c>
       <c r="O4">
-        <v>0.6703071726190299</v>
+        <v>0.3287101474992691</v>
       </c>
       <c r="P4">
-        <v>0.6703071726190299</v>
+        <v>0.328710147499269</v>
       </c>
       <c r="Q4">
-        <v>3.826656665899595</v>
+        <v>3.345088365481334</v>
       </c>
       <c r="R4">
-        <v>3.826656665899595</v>
+        <v>30.105795289332</v>
       </c>
       <c r="S4">
-        <v>0.000623710530068202</v>
+        <v>0.0004640361466006328</v>
       </c>
       <c r="T4">
-        <v>0.000623710530068202</v>
+        <v>0.0004643463358975306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.260188503870192</v>
+        <v>12.48167633333333</v>
       </c>
       <c r="N5">
-        <v>0.260188503870192</v>
+        <v>37.44502900000001</v>
       </c>
       <c r="O5">
-        <v>0.01410818159571899</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="P5">
-        <v>0.01410818159571899</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="Q5">
-        <v>71.80148178270004</v>
+        <v>6.536316890505668</v>
       </c>
       <c r="R5">
-        <v>71.80148178270004</v>
+        <v>58.82685201455102</v>
       </c>
       <c r="S5">
-        <v>0.01170299406828081</v>
+        <v>0.0009067286036835206</v>
       </c>
       <c r="T5">
-        <v>0.01170299406828081</v>
+        <v>0.0009073347148886804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H6">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I6">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J6">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.82013325205461</v>
+        <v>0.116832</v>
       </c>
       <c r="N6">
-        <v>5.82013325205461</v>
+        <v>0.350496</v>
       </c>
       <c r="O6">
-        <v>0.3155846457852511</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="P6">
-        <v>0.3155846457852511</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="Q6">
-        <v>1606.120891024352</v>
+        <v>33.98615950224001</v>
       </c>
       <c r="R6">
-        <v>1606.120891024352</v>
+        <v>305.8754355201601</v>
       </c>
       <c r="S6">
-        <v>0.2617832222110034</v>
+        <v>0.004714615809829175</v>
       </c>
       <c r="T6">
-        <v>0.2617832222110034</v>
+        <v>0.004717767338807915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3620623390704</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N7">
-        <v>12.3620623390704</v>
+        <v>1.339502</v>
       </c>
       <c r="O7">
-        <v>0.6703071726190299</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="P7">
-        <v>0.6703071726190299</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="Q7">
-        <v>3411.428178541648</v>
+        <v>129.8860147492967</v>
       </c>
       <c r="R7">
-        <v>3411.428178541648</v>
+        <v>1168.97413274367</v>
       </c>
       <c r="S7">
-        <v>0.5560320309080062</v>
+        <v>0.01801800107989192</v>
       </c>
       <c r="T7">
-        <v>0.5560320309080062</v>
+        <v>0.0180300453810254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.260188503870192</v>
+        <v>6.387742666666667</v>
       </c>
       <c r="N8">
-        <v>0.260188503870192</v>
+        <v>19.163228</v>
       </c>
       <c r="O8">
-        <v>0.01410818159571899</v>
+        <v>0.3287101474992691</v>
       </c>
       <c r="P8">
-        <v>0.01410818159571899</v>
+        <v>0.328710147499269</v>
       </c>
       <c r="Q8">
-        <v>4.904599365806875</v>
+        <v>1858.179617986487</v>
       </c>
       <c r="R8">
-        <v>4.904599365806875</v>
+        <v>16723.61656187838</v>
       </c>
       <c r="S8">
-        <v>0.0007994054699183291</v>
+        <v>0.2577697254638031</v>
       </c>
       <c r="T8">
-        <v>0.0007994054699183291</v>
+        <v>0.2579420340446947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.82013325205461</v>
+        <v>12.48167633333333</v>
       </c>
       <c r="N9">
-        <v>5.82013325205461</v>
+        <v>37.44502900000001</v>
       </c>
       <c r="O9">
-        <v>0.3155846457852511</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="P9">
-        <v>0.3155846457852511</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="Q9">
-        <v>109.7105422889086</v>
+        <v>3630.890875102719</v>
       </c>
       <c r="R9">
-        <v>109.7105422889086</v>
+        <v>32678.01787592447</v>
       </c>
       <c r="S9">
-        <v>0.01788182908983255</v>
+        <v>0.5036831396732401</v>
       </c>
       <c r="T9">
-        <v>0.01788182908983255</v>
+        <v>0.504019831373012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H10">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I10">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J10">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>12.3620623390704</v>
+        <v>0.116832</v>
       </c>
       <c r="N10">
-        <v>12.3620623390704</v>
+        <v>0.350496</v>
       </c>
       <c r="O10">
-        <v>0.6703071726190299</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="P10">
-        <v>0.6703071726190299</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="Q10">
-        <v>233.0270638648913</v>
+        <v>4.5195573224</v>
       </c>
       <c r="R10">
-        <v>233.0270638648913</v>
+        <v>40.6760159016</v>
       </c>
       <c r="S10">
-        <v>0.03798131011297305</v>
+        <v>0.0006269604073449917</v>
       </c>
       <c r="T10">
-        <v>0.03798131011297305</v>
+        <v>0.0006273795048859092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H11">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I11">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J11">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.260188503870192</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N11">
-        <v>0.260188503870192</v>
+        <v>1.339502</v>
       </c>
       <c r="O11">
-        <v>0.01410818159571899</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="P11">
-        <v>0.01410818159571899</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="Q11">
-        <v>9.628080669419274</v>
+        <v>17.27253969366111</v>
       </c>
       <c r="R11">
-        <v>9.628080669419274</v>
+        <v>155.45285724295</v>
       </c>
       <c r="S11">
-        <v>0.001569290328912008</v>
+        <v>0.002396075046675086</v>
       </c>
       <c r="T11">
-        <v>0.001569290328912008</v>
+        <v>0.002397676725422501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.82013325205461</v>
+        <v>6.387742666666667</v>
       </c>
       <c r="N12">
-        <v>5.82013325205461</v>
+        <v>19.163228</v>
       </c>
       <c r="O12">
-        <v>0.3155846457852511</v>
+        <v>0.3287101474992691</v>
       </c>
       <c r="P12">
-        <v>0.3155846457852511</v>
+        <v>0.328710147499269</v>
       </c>
       <c r="Q12">
-        <v>215.3696709271523</v>
+        <v>247.1049810218111</v>
       </c>
       <c r="R12">
-        <v>215.3696709271523</v>
+        <v>2223.9448291963</v>
       </c>
       <c r="S12">
-        <v>0.0351033142878026</v>
+        <v>0.03427880841129414</v>
       </c>
       <c r="T12">
-        <v>0.0351033142878026</v>
+        <v>0.03430172240098543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.3620623390704</v>
+        <v>12.48167633333333</v>
       </c>
       <c r="N13">
-        <v>12.3620623390704</v>
+        <v>37.44502900000001</v>
       </c>
       <c r="O13">
-        <v>0.6703071726190299</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="P13">
-        <v>0.6703071726190299</v>
+        <v>0.6423010259912583</v>
       </c>
       <c r="Q13">
-        <v>457.4488560045692</v>
+        <v>482.8441836837806</v>
       </c>
       <c r="R13">
-        <v>457.4488560045692</v>
+        <v>4345.597653154025</v>
       </c>
       <c r="S13">
-        <v>0.07456003853186775</v>
+        <v>0.06698093739981349</v>
       </c>
       <c r="T13">
-        <v>0.07456003853186775</v>
+        <v>0.06702571143310769</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H14">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I14">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J14">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.260188503870192</v>
+        <v>0.116832</v>
       </c>
       <c r="N14">
-        <v>0.260188503870192</v>
+        <v>0.350496</v>
       </c>
       <c r="O14">
-        <v>0.01410818159571899</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="P14">
-        <v>0.01410818159571899</v>
+        <v>0.006012118201479615</v>
       </c>
       <c r="Q14">
-        <v>0.1433470853540109</v>
+        <v>4.685687324736</v>
       </c>
       <c r="R14">
-        <v>0.1433470853540109</v>
+        <v>42.171185922624</v>
       </c>
       <c r="S14">
-        <v>2.336428229546E-05</v>
+        <v>0.0006500062338511799</v>
       </c>
       <c r="T14">
-        <v>2.336428229546E-05</v>
+        <v>0.0006504407365901035</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H15">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I15">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J15">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.82013325205461</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N15">
-        <v>5.82013325205461</v>
+        <v>1.339502</v>
       </c>
       <c r="O15">
-        <v>0.3155846457852511</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="P15">
-        <v>0.3155846457852511</v>
+        <v>0.02297670830799309</v>
       </c>
       <c r="Q15">
-        <v>3.20651806534166</v>
+        <v>17.90744414446533</v>
       </c>
       <c r="R15">
-        <v>3.20651806534166</v>
+        <v>161.166997300188</v>
       </c>
       <c r="S15">
-        <v>0.0005226335302117712</v>
+        <v>0.0024841500338267</v>
       </c>
       <c r="T15">
-        <v>0.0005226335302117712</v>
+        <v>0.002485810587122012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>40.106198</v>
+      </c>
+      <c r="H16">
+        <v>120.318594</v>
+      </c>
+      <c r="I16">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J16">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.387742666666667</v>
+      </c>
+      <c r="N16">
+        <v>19.163228</v>
+      </c>
+      <c r="O16">
+        <v>0.3287101474992691</v>
+      </c>
+      <c r="P16">
+        <v>0.328710147499269</v>
+      </c>
+      <c r="Q16">
+        <v>256.1880721623813</v>
+      </c>
+      <c r="R16">
+        <v>2305.692649461432</v>
+      </c>
+      <c r="S16">
+        <v>0.03553882971763295</v>
+      </c>
+      <c r="T16">
+        <v>0.03556258598033671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.106198</v>
+      </c>
+      <c r="H17">
+        <v>120.318594</v>
+      </c>
+      <c r="I17">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J17">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.48167633333333</v>
+      </c>
+      <c r="N17">
+        <v>37.44502900000001</v>
+      </c>
+      <c r="O17">
+        <v>0.6423010259912583</v>
+      </c>
+      <c r="P17">
+        <v>0.6423010259912583</v>
+      </c>
+      <c r="Q17">
+        <v>500.5925823965807</v>
+      </c>
+      <c r="R17">
+        <v>4505.333241569227</v>
+      </c>
+      <c r="S17">
+        <v>0.06944302439040165</v>
+      </c>
+      <c r="T17">
+        <v>0.0694894442287438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7434085</v>
+      </c>
+      <c r="H18">
+        <v>1.486817</v>
+      </c>
+      <c r="I18">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J18">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.116832</v>
+      </c>
+      <c r="N18">
+        <v>0.350496</v>
+      </c>
+      <c r="O18">
+        <v>0.006012118201479615</v>
+      </c>
+      <c r="P18">
+        <v>0.006012118201479615</v>
+      </c>
+      <c r="Q18">
+        <v>0.08685390187200001</v>
+      </c>
+      <c r="R18">
+        <v>0.521123411232</v>
+      </c>
+      <c r="S18">
+        <v>1.204851577549073E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.037713145606471E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7434085</v>
+      </c>
+      <c r="H19">
+        <v>1.486817</v>
+      </c>
+      <c r="I19">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J19">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4465006666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.339502</v>
+      </c>
+      <c r="O19">
+        <v>0.02297670830799309</v>
+      </c>
+      <c r="P19">
+        <v>0.02297670830799309</v>
+      </c>
+      <c r="Q19">
+        <v>0.3319323908556667</v>
+      </c>
+      <c r="R19">
+        <v>1.991594345134</v>
+      </c>
+      <c r="S19">
+        <v>4.604620588623375E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.071799060179334E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7434085</v>
+      </c>
+      <c r="H20">
+        <v>1.486817</v>
+      </c>
+      <c r="I20">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J20">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.387742666666667</v>
+      </c>
+      <c r="N20">
+        <v>19.163228</v>
+      </c>
+      <c r="O20">
+        <v>0.3287101474992691</v>
+      </c>
+      <c r="P20">
+        <v>0.328710147499269</v>
+      </c>
+      <c r="Q20">
+        <v>4.748702194212667</v>
+      </c>
+      <c r="R20">
+        <v>28.492213165276</v>
+      </c>
+      <c r="S20">
+        <v>0.0006587477599382754</v>
+      </c>
+      <c r="T20">
+        <v>0.000439458737354646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="H16">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="I16">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="J16">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.3620623390704</v>
-      </c>
-      <c r="N16">
-        <v>12.3620623390704</v>
-      </c>
-      <c r="O16">
-        <v>0.6703071726190299</v>
-      </c>
-      <c r="P16">
-        <v>0.6703071726190299</v>
-      </c>
-      <c r="Q16">
-        <v>6.810699085131029</v>
-      </c>
-      <c r="R16">
-        <v>6.810699085131029</v>
-      </c>
-      <c r="S16">
-        <v>0.001110082536114712</v>
-      </c>
-      <c r="T16">
-        <v>0.001110082536114712</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7434085</v>
+      </c>
+      <c r="H21">
+        <v>1.486817</v>
+      </c>
+      <c r="I21">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J21">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.48167633333333</v>
+      </c>
+      <c r="N21">
+        <v>37.44502900000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6423010259912583</v>
+      </c>
+      <c r="P21">
+        <v>0.6423010259912583</v>
+      </c>
+      <c r="Q21">
+        <v>9.278984280448835</v>
+      </c>
+      <c r="R21">
+        <v>55.67390568269301</v>
+      </c>
+      <c r="S21">
+        <v>0.001287195924119556</v>
+      </c>
+      <c r="T21">
+        <v>0.0008587042415060816</v>
       </c>
     </row>
   </sheetData>
